--- a/tien_nuoc.xlsx
+++ b/tien_nuoc.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Đơn vị </t>
   </si>
   <si>
-    <t>A10_04</t>
+    <t>A11_02</t>
   </si>
   <si>
     <t>m^3</t>
@@ -47,13 +47,13 @@
     <t>A01_01</t>
   </si>
   <si>
+    <t>A10_04</t>
+  </si>
+  <si>
     <t>A09_01</t>
   </si>
   <si>
     <t>A10_01</t>
-  </si>
-  <si>
-    <t>A11_02</t>
   </si>
   <si>
     <t>A11_03</t>
@@ -73,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -546,22 +546,22 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1269,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>23542</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1280,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>3435</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1291,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>3333</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1302,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1313,7 +1313,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1324,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1335,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1346,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1357,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>

--- a/tien_nuoc.xlsx
+++ b/tien_nuoc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Apartment</t>
   </si>
@@ -38,34 +38,67 @@
     <t xml:space="preserve">Đơn vị </t>
   </si>
   <si>
-    <t>A11_02</t>
+    <t>A001</t>
   </si>
   <si>
     <t>m^3</t>
   </si>
   <si>
-    <t>A01_01</t>
-  </si>
-  <si>
-    <t>A10_04</t>
-  </si>
-  <si>
-    <t>A09_01</t>
-  </si>
-  <si>
-    <t>A10_01</t>
-  </si>
-  <si>
-    <t>A11_03</t>
-  </si>
-  <si>
-    <t>A09_04</t>
-  </si>
-  <si>
-    <t>A09_03</t>
-  </si>
-  <si>
-    <t>A10_06</t>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>A011</t>
+  </si>
+  <si>
+    <t>A012</t>
+  </si>
+  <si>
+    <t>A013</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>A016</t>
+  </si>
+  <si>
+    <t>A017</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>A020</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1287,7 +1320,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
@@ -1298,7 +1331,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
@@ -1309,7 +1342,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
@@ -1320,7 +1353,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
@@ -1331,7 +1364,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
@@ -1342,7 +1375,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
@@ -1353,13 +1386,134 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
